--- a/clean_and_feature_extraction/seattle_attractions.xlsx
+++ b/clean_and_feature_extraction/seattle_attractions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yueliu/Documents/seattle_airbnb_prediction/clean_and_feature_extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932D1F22-C009-BB44-9C64-7FDACE2B8442}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3591BCCC-383F-CE42-94A7-555BF68B6F38}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12720" yWindow="3660" windowWidth="15680" windowHeight="13320" xr2:uid="{BA334B85-914E-8649-BBBF-ED261E2EA276}"/>
+    <workbookView xWindow="13580" yWindow="2640" windowWidth="15680" windowHeight="13320" xr2:uid="{BA334B85-914E-8649-BBBF-ED261E2EA276}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>attraction</t>
   </si>
@@ -38,70 +38,64 @@
     <t>lat</t>
   </si>
   <si>
-    <t>Pike_Place_Market</t>
-  </si>
-  <si>
-    <t>Chihuly_Garden</t>
-  </si>
-  <si>
-    <t>Space_Needle</t>
-  </si>
-  <si>
-    <t>Olympic_Sculpture_Park</t>
-  </si>
-  <si>
-    <t>Museum_Flight</t>
-  </si>
-  <si>
-    <t>Discovery_Park</t>
-  </si>
-  <si>
-    <t>Ballard_Locks</t>
-  </si>
-  <si>
-    <t>Art_Museum</t>
-  </si>
-  <si>
-    <t>Kerry_Park</t>
-  </si>
-  <si>
     <t>Aquarium</t>
   </si>
   <si>
-    <t>Museum_Pop</t>
-  </si>
-  <si>
-    <t>Pioneer_Square</t>
-  </si>
-  <si>
-    <t>Pacific_Sci_center</t>
-  </si>
-  <si>
-    <t>Woodland_Zoo</t>
-  </si>
-  <si>
-    <t>T-Mobile_Park</t>
-  </si>
-  <si>
-    <t>Alki_Beach</t>
-  </si>
-  <si>
     <t>UW</t>
   </si>
   <si>
-    <t>underground_tour</t>
-  </si>
-  <si>
-    <t>amazon_spheres</t>
-  </si>
-  <si>
-    <t>UW_botanic gardens</t>
-  </si>
-  <si>
-    <t>gas_work_park</t>
-  </si>
-  <si>
     <t>lon</t>
+  </si>
+  <si>
+    <t>Pike Place Market</t>
+  </si>
+  <si>
+    <t>Chihuly Garden</t>
+  </si>
+  <si>
+    <t>Space Needle</t>
+  </si>
+  <si>
+    <t>Olympic Sculpture Park</t>
+  </si>
+  <si>
+    <t>Discovery Park</t>
+  </si>
+  <si>
+    <t>Ballard Locks</t>
+  </si>
+  <si>
+    <t>Art Museum</t>
+  </si>
+  <si>
+    <t>Kerry Park</t>
+  </si>
+  <si>
+    <t>Museum Pop</t>
+  </si>
+  <si>
+    <t>Pioneer Square</t>
+  </si>
+  <si>
+    <t>Pacific Scientific Center</t>
+  </si>
+  <si>
+    <t>Woodland Zoo</t>
+  </si>
+  <si>
+    <t>T-Mobile Park</t>
+  </si>
+  <si>
+    <t>Alki Beach</t>
+  </si>
+  <si>
+    <t>Underground Tour</t>
+  </si>
+  <si>
+    <t>Amazon Spheres</t>
+  </si>
+  <si>
+    <t>Gas Work Park</t>
   </si>
 </sst>
 </file>
@@ -468,13 +462,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CB239A-3608-E149-BCBD-36B244ADCA12}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -484,12 +481,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>47.609720000000003</v>
@@ -500,7 +497,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>47.620562999999997</v>
@@ -511,7 +508,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>47.620423700000003</v>
@@ -522,7 +519,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>47.616602800000003</v>
@@ -533,188 +530,166 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
-        <v>47.518639880000002</v>
+        <v>47.657302000000001</v>
       </c>
       <c r="C6" s="2">
-        <v>-122.29833149</v>
+        <v>-122.405496</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>47.657302000000001</v>
+        <v>47.665487200000001</v>
       </c>
       <c r="C7" s="2">
-        <v>-122.405496</v>
+        <v>-122.3969891</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
-        <v>47.665487200000001</v>
+        <v>47.607309000000001</v>
       </c>
       <c r="C8" s="2">
-        <v>-122.3969891</v>
+        <v>-122.33813309999999</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
-        <v>47.607309000000001</v>
+        <v>47.629469200000003</v>
       </c>
       <c r="C9" s="2">
-        <v>-122.33813309999999</v>
+        <v>-122.3599224</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2">
-        <v>47.629469200000003</v>
+        <v>47.607444999999998</v>
       </c>
       <c r="C10" s="2">
-        <v>-122.3599224</v>
+        <v>-122.3429996</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2">
-        <v>47.607444999999998</v>
+        <v>47.621482399999998</v>
       </c>
       <c r="C11" s="2">
-        <v>-122.3429996</v>
+        <v>-122.3481245</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2">
-        <v>47.621482399999998</v>
+        <v>47.601636300000003</v>
       </c>
       <c r="C12" s="2">
-        <v>-122.3481245</v>
+        <v>-122.33115705</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2">
-        <v>47.601636300000003</v>
+        <v>47.619739299999999</v>
       </c>
       <c r="C13" s="2">
-        <v>-122.33115705</v>
+        <v>-122.3510924</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>47.619739299999999</v>
+        <v>47.668516099999998</v>
       </c>
       <c r="C14" s="2">
-        <v>-122.3510924</v>
+        <v>-122.3543444</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" s="2">
-        <v>47.668516099999998</v>
+        <v>47.591402600000002</v>
       </c>
       <c r="C15" s="2">
-        <v>-122.3543444</v>
+        <v>-122.3325085</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" s="2">
-        <v>47.591402600000002</v>
+        <v>47.584908990000002</v>
       </c>
       <c r="C16" s="2">
-        <v>-122.3325085</v>
+        <v>-122.40044691999999</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B17" s="2">
-        <v>47.584908990000002</v>
+        <v>47.662799999999997</v>
       </c>
       <c r="C17" s="2">
-        <v>-122.40044691999999</v>
+        <v>-122.3139</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2">
-        <v>47.64237602</v>
+        <v>47.602375000000002</v>
       </c>
       <c r="C18" s="2">
-        <v>-122.27895667999999</v>
+        <v>-122.333654</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2">
-        <v>47.602375000000002</v>
+        <v>47.615479999999998</v>
       </c>
       <c r="C19" s="2">
-        <v>-122.333654</v>
+        <v>-122.33979069999999</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2">
-        <v>47.615479999999998</v>
+        <v>47.645630799999999</v>
       </c>
       <c r="C20" s="2">
-        <v>-122.33979069999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2">
-        <v>47.636640159999999</v>
-      </c>
-      <c r="C21" s="2">
-        <v>-122.2875683</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2">
-        <v>47.645630799999999</v>
-      </c>
-      <c r="C22" s="2">
         <v>-122.3343532</v>
       </c>
     </row>
